--- a/canada/2.british-columbia/surrey/8-bc-auto-financing.xlsx
+++ b/canada/2.british-columbia/surrey/8-bc-auto-financing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="206">
   <si>
     <t>Business URL</t>
   </si>
@@ -34,98 +34,637 @@
     <t>Business Open</t>
   </si>
   <si>
+    <t>https://www.bbb.org/ca/bc/chilliwack/profile/loan-broker/fairstone-financial-inc-0037-2418988?addressId=156476</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/nanaimo/profile/auto-financing/td-auto-finance-0047-90006736?addressId=9064</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/richmond/profile/auto-financing/cowell-lease-inc-0037-2397759</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-financing/carmodity-0037-2417260</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-financing/canada-drives-ltd-0037-1278030</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/port-coquitlam/profile/auto-financing/credit-now-0037-1155397</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/kamloops/profile/loan-broker/fairstone-financial-inc-0037-2418982?addressId=156458</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/nanaimo/profile/loan-broker/fairstone-financial-0047-235963399?addressId=38091</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/loan-broker/fairstone-financial-inc-0037-2418991?addressId=156485</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-financing/vancouver-auto-credit-ltd-0037-1286728</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/coquitlam/profile/car-dealers/vancity-auto-approvals-inc-0037-1385890</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/new-westminster/profile/auto-wholesale/kabani-auto-0037-1233110</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/loan-broker/fairstone-financial-inc-0037-2418976?addressId=156440</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/new-westminster/profile/used-car-dealers/sjs-auto-sales-inc-0037-1367783</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/used-car-dealers/car-match-auto-group-0037-1293757</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/campbell-river/profile/new-car-dealers/island-owl-mazda-0047-90008821</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-financing/social-motors-ltd-0037-1378437</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/port-conquitlam/profile/auto-financing/metro-ford-0037-2412225</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/new-car-dealers/destination-kingsway-honda-0037-117361</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/courtenay/profile/loan-broker/fairstone-financial-0047-235963400?addressId=38092</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/loan-broker/fairstone-financial-inc-0037-2418981?addressId=156455</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/kelowna/profile/loan-broker/fairstone-financial-inc-0037-2418979?addressId=156449</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/coquitlam/profile/auto-financing/gozigo-financial-services-0037-1385896</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/used-car-dealers/galaxy-motors-1990-ltd-0047-1086794</t>
+  </si>
+  <si>
     <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-financing/guaranteed-auto-loans-0037-1281188</t>
   </si>
   <si>
-    <t>https://www.bbb.org/ca/bc/coquitlam/profile/car-dealers/vancity-auto-approvals-inc-0037-1385890</t>
-  </si>
-  <si>
-    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-financing/carmodity-0037-2417260</t>
+    <t>https://www.bbb.org/ca/bc/westbank/profile/car-dealers/walker-auto-sales-0037-1379071</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/loan-broker/fairstone-financial-inc-0037-2418990?addressId=156482</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/duncan/profile/loan-broker/fairstone-financial-0047-235963397?addressId=38089</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/new-car-dealers/destination-vancouver-mazda-0037-108641</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-financing/one-click-auto-loans-0037-2416054</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/new-car-dealers/destination-toyota-burnaby-0037-118731</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/auto-financing/getgoingca-0037-1375153</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-financing/langley-auto-loans-0037-1288876</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/auto-repair/haus-of-cars-inc-0037-1369994</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/west-kelowna/profile/used-car-dealers/total-image-auto-sales-0037-1379074</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/port-coquitlam/profile/auto-financing/journey-approved-0037-2431052</t>
   </si>
   <si>
     <t>https://www.bbb.org/ca/bc/squamish/profile/car-dealers/foundation-squamish-chrysler-dodge-jeep-ram-0037-1383555</t>
   </si>
   <si>
-    <t>https://www.bbb.org/ca/bc/burnaby/profile/loan-broker/fairstone-financial-inc-0037-2418981?addressId=156455</t>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/used-car-dealers/ina-motors-0047-90007783</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/penticton/profile/loan-broker/fairstone-financial-inc-0037-2418989?addressId=156479</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/abbotsford/profile/loan-broker/fairstone-financial-inc-0037-2418978?addressId=156446</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/loan-broker/fairstone-financial-0047-90013576?addressId=12977</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/loan-broker/fairstone-financial-inc-0037-2418977?addressId=156443</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/loan-broker/fairstone-financial-inc-0037-2418985?addressId=156467</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/port-alberni/profile/loan-broker/fairstone-financial-0047-235963401?addressId=38093</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/used-car-dealers/apna-motors-ltd-0037-1379053</t>
+  </si>
+  <si>
+    <t>Fairstone Financial Inc.</t>
+  </si>
+  <si>
+    <t>TD Auto Finance</t>
+  </si>
+  <si>
+    <t>Cowell Lease Inc.</t>
+  </si>
+  <si>
+    <t>Carmodity</t>
+  </si>
+  <si>
+    <t>Canada Drives Ltd</t>
+  </si>
+  <si>
+    <t>Credit Now</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>Vancouver Auto Credit Ltd.</t>
+  </si>
+  <si>
+    <t>Vancity Auto Approvals Inc.</t>
+  </si>
+  <si>
+    <t>Kabani Auto</t>
+  </si>
+  <si>
+    <t>SJS Auto Sales Inc</t>
+  </si>
+  <si>
+    <t>Car Match Auto Group</t>
+  </si>
+  <si>
+    <t>Island Owl Mazda</t>
+  </si>
+  <si>
+    <t>Social Motors Ltd.</t>
+  </si>
+  <si>
+    <t>Metro Ford</t>
+  </si>
+  <si>
+    <t>Destination Kingsway Honda</t>
+  </si>
+  <si>
+    <t>Fairstone Financial</t>
+  </si>
+  <si>
+    <t>Gozigo Financial Services</t>
+  </si>
+  <si>
+    <t>Galaxy Motors Galaxy RV</t>
   </si>
   <si>
     <t>Guaranteed Auto Loans</t>
   </si>
   <si>
-    <t>Vancity Auto Approvals Inc.</t>
-  </si>
-  <si>
-    <t>Carmodity</t>
+    <t>Walker Auto Sales</t>
+  </si>
+  <si>
+    <t>Destination Vancouver Mazda</t>
+  </si>
+  <si>
+    <t>One Click Auto Loans</t>
+  </si>
+  <si>
+    <t>Destination Toyota Burnaby</t>
+  </si>
+  <si>
+    <t>Getgoing.ca</t>
+  </si>
+  <si>
+    <t>Langley Auto Loans</t>
+  </si>
+  <si>
+    <t>Haus of Cars Inc.</t>
+  </si>
+  <si>
+    <t>Total Image Auto Sales</t>
+  </si>
+  <si>
+    <t>Journey Approved</t>
   </si>
   <si>
     <t>Foundation Squamish Chrysler Dodge Jeep Ram</t>
   </si>
   <si>
-    <t>Fairstone Financial Inc.</t>
+    <t>Ina Motors</t>
+  </si>
+  <si>
+    <t>Apna Motors Ltd.</t>
+  </si>
+  <si>
+    <t>600 8236 Eagle Landing Pkwy
+Chilliwack, BC V2R 0R5</t>
+  </si>
+  <si>
+    <t>250 Albert St
+Nanaimo, BC V9R 2V6</t>
+  </si>
+  <si>
+    <t>13611 Smallwood Place
+Richmond, BC V6V 1W8</t>
+  </si>
+  <si>
+    <t>128 W Pender St Suite 1400
+Vancouver, BC V6B 1R8</t>
+  </si>
+  <si>
+    <t>600 555 Burrard St
+Vancouver, BC V7X 1M8</t>
+  </si>
+  <si>
+    <t>2060 Oxford Connector
+Flr 2
+Port Coquitlam, BC V3C 0A4</t>
+  </si>
+  <si>
+    <t>100 19335 Langley Bypass
+Surrey, BC V3S 6K1</t>
+  </si>
+  <si>
+    <t>688 Lougheed Hwy
+Coquitlam, BC V3K 3S6</t>
+  </si>
+  <si>
+    <t>240 12 St
+New Westminster, BC V3M 4H2</t>
+  </si>
+  <si>
+    <t>325 12th St
+New Westminster, BC V3M 4H5</t>
+  </si>
+  <si>
+    <t>1075 Lougheed Hwy
+Burnaby, BC V5J 3G8</t>
+  </si>
+  <si>
+    <t>2280 Island Hwy
+Campbell River, BC V9W 2G8</t>
+  </si>
+  <si>
+    <t>104 19415 56 Ave
+Surrey, BC V3S 6K2</t>
+  </si>
+  <si>
+    <t>2505 Lougheed Hwy
+Port Conquitlam, BC V3B 1B2</t>
+  </si>
+  <si>
+    <t>368 Kingsway
+Vancouver, BC V5T 3J6</t>
+  </si>
+  <si>
+    <t>5-468 29th St
+Courtenay, BC V9N 7S7</t>
+  </si>
+  <si>
+    <t>160 3355 North Rd
+Burnaby, BC V3J 7T9</t>
+  </si>
+  <si>
+    <t>7 2121 Springfield Rd
+Kelowna, BC V1Y 7X1</t>
+  </si>
+  <si>
+    <t>4391 Westshore Parkway
+Victoria, BC V9B 5Z1</t>
   </si>
   <si>
     <t>1404 South West Marine Avenue
 Vancouver, BC V6P 5Z9</t>
   </si>
   <si>
-    <t>688 Lougheed Hwy
-Coquitlam, BC V3K 3S6</t>
-  </si>
-  <si>
-    <t>128 W Pender St Suite 1400
-Vancouver, BC V6B 1R8</t>
+    <t>2211 Louie Dr
+Westbank, BC V4T 2S2</t>
+  </si>
+  <si>
+    <t>1595 Boundary Rd
+Vancouver, BC V5K 5C4</t>
+  </si>
+  <si>
+    <t>520 885 Dunsmuir St
+Vancouver, BC V6C 1N5</t>
+  </si>
+  <si>
+    <t>4451 Still Creek Dr
+Burnaby, BC V5C 6G9</t>
+  </si>
+  <si>
+    <t>19611 Langley Bypass
+Langley, BC V3A 4K8</t>
+  </si>
+  <si>
+    <t>19418 Langley Bypass
+Surrey, BC V3S 7R2</t>
+  </si>
+  <si>
+    <t>7386 6th Street
+Burnaby, BC V3N 3L4</t>
+  </si>
+  <si>
+    <t>110 2565 Main St
+West Kelowna, BC V4T 2B4</t>
+  </si>
+  <si>
+    <t>1881 Lougheed Hwy
+Port Coquitlam, BC V3B 1A5</t>
   </si>
   <si>
     <t>Squamish, BC V8B 0G8</t>
   </si>
   <si>
-    <t>160 3355 North Rd
-Burnaby, BC V3J 7T9</t>
+    <t>719 Station Ave
+Victoria, BC V9B 4M1</t>
+  </si>
+  <si>
+    <t>306 6339 200 St
+Langley, BC V2Y 1A2</t>
+  </si>
+  <si>
+    <t>12880 King George Blvd
+Surrey, BC V3T 2S9</t>
+  </si>
+  <si>
+    <t>https://www.fairstone.ca/</t>
+  </si>
+  <si>
+    <t>http://www.tdautofinance.ca/</t>
+  </si>
+  <si>
+    <t>tel:604-214-3325</t>
+  </si>
+  <si>
+    <t>https://econommi.io/</t>
+  </si>
+  <si>
+    <t>https://www.canadadrives.ca/?region=BC</t>
+  </si>
+  <si>
+    <t>http://creditnow.ca/</t>
+  </si>
+  <si>
+    <t>https://www.vanautocredit.ca/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=listing</t>
+  </si>
+  <si>
+    <t>https://vancityautoapprovals.com/</t>
+  </si>
+  <si>
+    <t>https://www.kabaniauto.ca/</t>
+  </si>
+  <si>
+    <t>https://sjsautosales.ca/</t>
+  </si>
+  <si>
+    <t>http://www.carmatchautogroup.com/</t>
+  </si>
+  <si>
+    <t>https://islandowlmazda.com/</t>
+  </si>
+  <si>
+    <t>tel:604-427-4604</t>
+  </si>
+  <si>
+    <t>https://yesteam.ca/</t>
+  </si>
+  <si>
+    <t>http://kingswayhonda.ca/</t>
+  </si>
+  <si>
+    <t>tel:604-210-4714</t>
+  </si>
+  <si>
+    <t>https://www.galaxymotors.net/</t>
   </si>
   <si>
     <t>http://www.guaranteedautoloans.ca/</t>
   </si>
   <si>
-    <t>https://vancityautoapprovals.com/</t>
-  </si>
-  <si>
-    <t>https://econommi.io/</t>
+    <t>https://www.facebook.com/pages/category/Car-Dealership/Walker-Auto-Sales-690738584633646</t>
+  </si>
+  <si>
+    <t>http://newmazda.ca/</t>
+  </si>
+  <si>
+    <t>https://www.oneclickautoloans.com/</t>
+  </si>
+  <si>
+    <t>http://destinationtoyota.ca/</t>
+  </si>
+  <si>
+    <t>https://www.getgoing.ca/</t>
+  </si>
+  <si>
+    <t>http://langleyautoloans.com/</t>
+  </si>
+  <si>
+    <t>https://www.hausofcars.ca/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/autoimagetotal</t>
+  </si>
+  <si>
+    <t>https://www.journeyapproved.com/</t>
   </si>
   <si>
     <t>https://www.foundationsquamishchrysler.com/</t>
   </si>
   <si>
-    <t>https://www.fairstone.ca/</t>
+    <t>https://www.inamotors.com/</t>
+  </si>
+  <si>
+    <t>https://apnamotors.com/</t>
+  </si>
+  <si>
+    <t>16048248211</t>
+  </si>
+  <si>
+    <t>18002761977</t>
+  </si>
+  <si>
+    <t>16042143325</t>
+  </si>
+  <si>
+    <t>17789264466</t>
+  </si>
+  <si>
+    <t>18888656402</t>
+  </si>
+  <si>
+    <t>16042272880</t>
+  </si>
+  <si>
+    <t>16043723999</t>
+  </si>
+  <si>
+    <t>17782225626</t>
+  </si>
+  <si>
+    <t>16045228889</t>
+  </si>
+  <si>
+    <t>16045533293</t>
+  </si>
+  <si>
+    <t>17788882836</t>
+  </si>
+  <si>
+    <t>12509141695</t>
+  </si>
+  <si>
+    <t>16044274604</t>
+  </si>
+  <si>
+    <t>16043680101</t>
+  </si>
+  <si>
+    <t>16048733676</t>
+  </si>
+  <si>
+    <t>18883332766</t>
+  </si>
+  <si>
+    <t>16044159820</t>
+  </si>
+  <si>
+    <t>12509797233</t>
+  </si>
+  <si>
+    <t>16042104714</t>
+  </si>
+  <si>
+    <t>12504787603</t>
   </si>
   <si>
     <t>16045063514</t>
   </si>
   <si>
-    <t>17782225626</t>
-  </si>
-  <si>
-    <t>17789264466</t>
+    <t>12507688140</t>
+  </si>
+  <si>
+    <t>16042919666</t>
+  </si>
+  <si>
+    <t>18885160630</t>
+  </si>
+  <si>
+    <t>16045714350</t>
+  </si>
+  <si>
+    <t>16042659302</t>
+  </si>
+  <si>
+    <t>17787280546</t>
+  </si>
+  <si>
+    <t>16045494949</t>
+  </si>
+  <si>
+    <t>16046701033</t>
   </si>
   <si>
     <t>18447138045</t>
   </si>
   <si>
-    <t>16044159820</t>
+    <t>17784060610</t>
+  </si>
+  <si>
+    <t>16045300757</t>
+  </si>
+  <si>
+    <t>16045371532</t>
+  </si>
+  <si>
+    <t>630 boulevard René-Lévesque Ouest, Suite 1400, Montréal, QC H3B 4Z9</t>
+  </si>
+  <si>
+    <t>300 - 12 Concorde Pl, Toronto, ON M3C 3R8</t>
+  </si>
+  <si>
+    <t>26/9/2019</t>
+  </si>
+  <si>
+    <t>27/9/2021</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>29/1/2003</t>
+  </si>
+  <si>
+    <t>1/5/2016</t>
+  </si>
+  <si>
+    <t>16/7/2019</t>
+  </si>
+  <si>
+    <t>31/1/2008</t>
+  </si>
+  <si>
+    <t>18/3/2018</t>
+  </si>
+  <si>
+    <t>4/4/2017</t>
+  </si>
+  <si>
+    <t>12/2/2015</t>
+  </si>
+  <si>
+    <t>30/1/2019</t>
+  </si>
+  <si>
+    <t>9/3/2021</t>
+  </si>
+  <si>
+    <t>31/12/1974</t>
+  </si>
+  <si>
+    <t>19/7/2005</t>
   </si>
   <si>
     <t>23/6/2015</t>
   </si>
   <si>
-    <t>16/7/2019</t>
-  </si>
-  <si>
-    <t>27/9/2021</t>
+    <t>18/2/2019</t>
+  </si>
+  <si>
+    <t>29/2/1952</t>
+  </si>
+  <si>
+    <t>24/8/2021</t>
+  </si>
+  <si>
+    <t>18/7/1993</t>
+  </si>
+  <si>
+    <t>28/10/2018</t>
+  </si>
+  <si>
+    <t>24/7/2016</t>
+  </si>
+  <si>
+    <t>27/5/2018</t>
+  </si>
+  <si>
+    <t>4/12/2023</t>
   </si>
   <si>
     <t>28/4/2019</t>
   </si>
   <si>
-    <t>630 boulevard René-Lévesque Ouest, Suite 1400, Montréal, QC H3B 4Z9</t>
+    <t>23/2/2014</t>
   </si>
 </sst>
 </file>
@@ -496,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,19 +1066,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -547,19 +1086,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -567,19 +1106,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -587,19 +1126,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -607,19 +1146,819 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -629,11 +1968,77 @@
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="D3" r:id="rId4"/>
     <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-    <hyperlink ref="D5" r:id="rId8"/>
-    <hyperlink ref="A6" r:id="rId9"/>
-    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="A5" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="A6" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="A7" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="A8" r:id="rId12"/>
+    <hyperlink ref="A9" r:id="rId13"/>
+    <hyperlink ref="A10" r:id="rId14"/>
+    <hyperlink ref="A11" r:id="rId15"/>
+    <hyperlink ref="D11" r:id="rId16"/>
+    <hyperlink ref="A12" r:id="rId17"/>
+    <hyperlink ref="D12" r:id="rId18"/>
+    <hyperlink ref="A13" r:id="rId19"/>
+    <hyperlink ref="D13" r:id="rId20"/>
+    <hyperlink ref="A14" r:id="rId21"/>
+    <hyperlink ref="A15" r:id="rId22"/>
+    <hyperlink ref="D15" r:id="rId23"/>
+    <hyperlink ref="A16" r:id="rId24"/>
+    <hyperlink ref="D16" r:id="rId25"/>
+    <hyperlink ref="A17" r:id="rId26"/>
+    <hyperlink ref="D17" r:id="rId27"/>
+    <hyperlink ref="A18" r:id="rId28"/>
+    <hyperlink ref="A19" r:id="rId29"/>
+    <hyperlink ref="D19" r:id="rId30"/>
+    <hyperlink ref="A20" r:id="rId31"/>
+    <hyperlink ref="D20" r:id="rId32"/>
+    <hyperlink ref="A21" r:id="rId33"/>
+    <hyperlink ref="D21" r:id="rId34"/>
+    <hyperlink ref="A22" r:id="rId35"/>
+    <hyperlink ref="D22" r:id="rId36"/>
+    <hyperlink ref="A23" r:id="rId37"/>
+    <hyperlink ref="D23" r:id="rId38"/>
+    <hyperlink ref="A24" r:id="rId39"/>
+    <hyperlink ref="A25" r:id="rId40"/>
+    <hyperlink ref="D25" r:id="rId41"/>
+    <hyperlink ref="A26" r:id="rId42"/>
+    <hyperlink ref="D26" r:id="rId43"/>
+    <hyperlink ref="A27" r:id="rId44"/>
+    <hyperlink ref="D27" r:id="rId45"/>
+    <hyperlink ref="A28" r:id="rId46"/>
+    <hyperlink ref="A29" r:id="rId47"/>
+    <hyperlink ref="A30" r:id="rId48"/>
+    <hyperlink ref="D30" r:id="rId49"/>
+    <hyperlink ref="A31" r:id="rId50"/>
+    <hyperlink ref="D31" r:id="rId51"/>
+    <hyperlink ref="A32" r:id="rId52"/>
+    <hyperlink ref="D32" r:id="rId53"/>
+    <hyperlink ref="A33" r:id="rId54"/>
+    <hyperlink ref="D33" r:id="rId55"/>
+    <hyperlink ref="A34" r:id="rId56"/>
+    <hyperlink ref="D34" r:id="rId57"/>
+    <hyperlink ref="A35" r:id="rId58"/>
+    <hyperlink ref="D35" r:id="rId59"/>
+    <hyperlink ref="A36" r:id="rId60"/>
+    <hyperlink ref="D36" r:id="rId61"/>
+    <hyperlink ref="A37" r:id="rId62"/>
+    <hyperlink ref="D37" r:id="rId63"/>
+    <hyperlink ref="A38" r:id="rId64"/>
+    <hyperlink ref="D38" r:id="rId65"/>
+    <hyperlink ref="A39" r:id="rId66"/>
+    <hyperlink ref="D39" r:id="rId67"/>
+    <hyperlink ref="A40" r:id="rId68"/>
+    <hyperlink ref="A41" r:id="rId69"/>
+    <hyperlink ref="A42" r:id="rId70"/>
+    <hyperlink ref="A43" r:id="rId71"/>
+    <hyperlink ref="A44" r:id="rId72"/>
+    <hyperlink ref="D44" r:id="rId73"/>
+    <hyperlink ref="A45" r:id="rId74"/>
+    <hyperlink ref="A46" r:id="rId75"/>
+    <hyperlink ref="D46" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
